--- a/DOWNLOADS/EDITAIS/U_154044_E_900302025_02-10-2025_11h00m/U_154044_E_900302025_02-10-2025_11h00m_master.xlsx
+++ b/DOWNLOADS/EDITAIS/U_154044_E_900302025_02-10-2025_11h00m/U_154044_E_900302025_02-10-2025_11h00m_master.xlsx
@@ -169,10 +169,10 @@
     <t>Torno universal Torno Universal Material Estrutura: Alumínio Fundido, Tipo: Eletronico, Potência Total Instalada: 1/2CV, Tipo Motor: Elétrico, 110/220v, Características Adicionais: Chave Seletora De Rotação C/ Duplo Sentido</t>
   </si>
   <si>
-    <t>BATERIA ELETRÔNICA: Características Técnicas: Módulo Sonoro: Módulo com 184 timbres integrados, incluindo sons realistas de bateria acústica, percussão eletrônica, efeitos sonoros e instrumentos adicionais, permitindo uma ampla variedade sonora para estilos musicais diversos. O módulo também deve possuir opções de edição de timbres, como ajuste de pitch, reverb, e outros parâmetros para personalização do som. Pads: Pads de silicone de alta qualidade, projetados para simular a resposta de peles de tambor acústicas. Esses pads proporcionam sensibilidade de toque ajustável, feedback tátil preciso e maior durabilidade, além de ajudar na redução de ruído durante o uso. Os pads devem ser silenciosos para não interferir no ambiente de ensaio ou gravação. Pads para caixa, toms e pratos, com tamanhos e formatos ideais para simular a disposição de uma bateria tradicional. Rack: Rack dobrável e ajustável, de construção robusta e leve, ideal para fácil transporte e armazenamento. O rack deve ser resistente à pressão e ao impacto, com ajustes de altura e ângulo para personalização do conforto do músico. A estrutura deve ser feita de material metálico de alta resistência, garantindo estabilidade durante as performances e ensaios. Pedais: Pedais de alta qualidade para o controle do bumbo, com resposta precisa e ajuste de tensão para atender a diferentes preferências de tocabilidade. O sistema de pedal deve ser projetado para proporcionar uma sensação natural e silenciosa de toque, ideal para gravações e ensaios sem interferência de ruídos. Conexões e Expansão: Conexões USB e MIDI para integração com computadores, softwares de gravação, DAWS (Digital Audio Workstations) e outros dispositivos eletrônicos. Essas conexões devem permitir controle total sobre os timbres e a edição em tempo real via software. Saídas de áudio padrão (P10 ou XLR) para amplificação e gravação, permitindo uma fácil conexão a sistemas de som ou equipamentos de gravação. Possibilidade de expansão de pads e triggers para personalização de set-up conforme a necessidade do usuário. Suporte para Bumbo Duplo Silencioso: Suporte de bumbo duplo silencioso, projetado para minimizar os ruídos de impacto e garantir um funcionamento silencioso e eficiente. Ideal para ensaios em ambientes fechados e gravações, esse suporte deve ser estável e ajustável, com sistema de fixação seguro para os pedais de bumbo.</t>
-  </si>
-  <si>
-    <t>CAVALETE DE PINTURA COMPACTO EM MADEIRA MOGNO COM REGULAGEM DE ALTURA: Altura ajustável: no mínimo 70 cm (posição retraída) e até 150 cm (posição estendida), permitindo acomodar diferentes tamanhos de telas. Base: largura mínima de 40 cm e profundidade de 40 cm oferecendo estabilidade mesmo em superfícies irregulares.</t>
+    <t>BATERIA ELETRÔNICA: Características Técnicas: Módulo Sonoro: Módulo com 184 timbres integrados, incluindo sons realistas de bateria acústica, percussão eletrônica, efeitos sonoros e instrumentos adicionais, permitindo uma ampla variedade sonora para estilos musicais diversos. O módulo também deve possuir opções de edição de timbres, como ajuste de pitch, reverb, e outros parâmetros para personalização do som. Pads: Pads de silicone de alta qualidade, projetados para simular a resposta de peles de tambor acústicas. Esses pads proporcionam sensibilidade de toque ajustável, feedback tátil preciso e maior durabilidade, além de ajudar na redução de ruído durante o uso. Os pads devem ser silenciosos para não interferir no ambiente de ensaio ou gravação. Pads para caixa, toms e pratos, com tamanhos e formatos ideais para simular a disposição de uma bateria tradicional. Rack: Rack dobrável e ajustável, de construção robusta e leve, ideal para fácil transporte e armazenamento. O rack deve ser resistente à pressão e ao impacto, com ajustes de altura e ângulo para personalização do conforto do músico. A estrutura deve ser feita de material metálico de alta resistência, garantindo estabilidade durante as performances e ensaios. Pedais: Pedais de alta qualidade para o controle do bumbo, com resposta precisa e ajuste de tensão para atender a diferentes preferências de tocabilidade. O sistema de pedal deve ser projetado para proporcionar uma sensação natural e silenciosa de toque, ideal para gravações e ensaios sem interferência de ruídos. Conexões e Expansão: Conexões USB e MIDI para integração com computadores, softwares de gravação, DAWs (Digital Audio Workstations) e outros dispositivos eletrônicos. Essas conexões devem permitir controle total sobre os timbres e a edição em tempo real via software. Saídas de áudio padrão (P10 ou XLR) para amplificação e gravação, permitindo uma fácil conexão a sistemas de som ou equipamentos de gravação. Possibilidade de expansão de pads e triggers para personalização de set-up conforme a necessidade do usuário. Suporte para Bumbo Duplo Silencioso: Suporte de bumbo duplo silencioso, projetado para minimizar os ruídos de impacto e garantir um funcionamento silencioso e eficiente. Ideal para ensaios em ambientes fechados e gravações, esse suporte deve ser estável e ajustável, com sistema de fixação seguro para os pedais de bumbo.</t>
+  </si>
+  <si>
+    <t>CAVALETE DE PINTURA COMPACTO EM MADEIRA MOGNO COM REGULAGEM DE ALTURA: Altura ajustável: no mínimo 70 cm (posição retraída) e até 150 cm (posição estendida), permitindo acomodar diferentes tamanhos de telas. Base: largura mínima de 40 cm e profundidade de 40 cm, oferecendo estabilidade mesmo em superfícies irregulares.</t>
   </si>
   <si>
     <t>CAVALETE DE PINTURA DE MESA ARTICULADO PARA PINTURA SENTADO: Altura ajustável: no mínimo 30 cm (posição retraída) e até 50 cm (posição estendida), permitindo acomodar diferentes tamanhos de telas ou suportes de pintura. Base para mesa: largura mínima de 25 cm e comprimento mínimo de 30 cm, garantindo estabilidade.</t>
@@ -190,49 +190,49 @@
     <t>Flauta Doce Contralto - Digitação Barroca, Resina ABS, Cor Branca Afinação: A flauta deve ser afinada conforme o padrão internacional, proporcionando uma tonalidade precisa e equilibrada, adequada para uso coletivo e individual. afinada em Fá (F), com um tom mais grave e equilibrado.</t>
   </si>
   <si>
-    <t>Flauta Doce Soprano - Digitação Barroca, Resina ABS, Cor Branca, Características Técnicas: Flauta doce soprano com digitação barroca Material: Fabricada em resina ABS de alta qualidade Cor: Cor branca, afinada em Dó (C), com um alto-falante mais agudo</t>
+    <t>Flauta Doce Soprano - Digitação Barroca, Resina ABS, Cor Branca. Características Técnicas: Flauta doce soprano com digitação barroca Material: Fabricada em resina ABS de alta qualidade Cor: Cor branca, afinada em Dó (C), com um alto-falante mais agudo</t>
   </si>
   <si>
     <t>GUITARRA ELÉTRICA. Características Técnicas: Captadores: Captadores Single Coil (meio e braço), proporcionando um som limpo e brilhante, ideal para uma ampla gama de estilos musicais. Captador Humbucker (ponte), garantindo um som mais potente e com maior saída, ideal para estilos que exigem mais ganho, como rock e metal. Corpo: Corpo em Basswood, madeira leve e durável, com boa ressonância e equilíbrio tonal, proporcionando timbres ricos e detalhados. Escala: Escala com 24 trastes, oferecendo maior alcance para o guitarrista e flexibilidade para solos e variações melódicas. Braço: Braço em madeira de qualidade (como maple ou similar), com perfil confortável e acabamento suave, permitindo maior facilidade de toque e desempenho. Escala de 25,5 polegadas (padrão), ideal para uma afinação precisa e excelente tocabilidade.</t>
   </si>
   <si>
-    <t>Kit de 8 Tubos Afinados - PVC Colorido, Escala Diatônica Dó Maior: Tubos fabricados em PVC colorido, Kkit é composto por 8 tubos afinados para as notas da escala diatônica Dó maior, variando de Dó a Dó (C4 a C5), Os tubos variam em comprimento de 28 cm a 61 cm, sendo cada tubo afinado especificamente para sua respectiva nota da escala. O comprimento dos tubos determina a frequência e a altura do som.</t>
-  </si>
-  <si>
-    <t>Kit de Tubos Graves - PVC Colorido, Escala Dó2 a Si2, Características Técnicas: Tipo de Instrumento: Kit de Tubos Graves composto por tubos afinados na escala musical Dó2 a Si2, com notas graves e médias, ideal para complementar a execução de peças musicais e fornecer suporte para práticas educacionais em grupos ou ensaios. O Kkit permite a execução de músicas em uma faixa de notas mais graves, proporcionando uma sonoridade rica e encorpada. Material: Tubos fabricados em PVC colorido, garantindo leveza, resistência e durabilidade, com boa projeção sonora. O material também é resistente a mudanças de temperatura e umidade, facilitando o transporte e a utilização em diversos ambientes. O PVC facilita a limpeza e manutenção dos tubos, sendo um material prático para uso contínuo. Afinação e Notas: O kit é composto por notas graves e médias, com a escala variando de Dó2 a Si2, o que proporciona um som profundo e encorpado para a execução de músicas em tons mais graves. Cada tubo é afinado individualmente, garantindo precisão tonal para cada nota na faixa especificada. Medidas dos Tubos: Os tubos variam em comprimento de 66 cm a 1,27 m, sendo que os tubos mais curtos produzem notas graves, enquanto os tubos mais longos produzem notas médias, com uma sonoridade mais profunda e balanceada, comprimento dos tubos é ajustado para garantir a frequência e a altura das notas graves e médias, permitindo a execução precisa da música. Cores: Tubos em cores vibrantes e distintas, facilitando a identificação visual das notas, especialmente em contextos educacionais, proporcionando uma abordagem intuitiva ao aprendizado musical. As cores devem ser padronizadas para cada nota, facilitando a leitura e identificação das notas graves. Acessórios: O Kkit pode incluir um suporte para os tubos, permitindo maior facilidade de uso e armazenamento, além de garantir a organização dos tubos durante o uso. Manual de instruções ou orientações básicas sobre como tocar as notas graves também pode ser fornecido, facilitando o ensino e a aprendizagem. Garantia e Suporte: Garantia mínima de 12 meses contra defeitos de fabricação, com suporte técnico e reposição de peças durante o período de garantia.</t>
+    <t>Kit de 8 Tubos Afinados - PVC Colorido, Escala Diatônica Dó Maior: Tubos fabricados em PVC colorido, kit é composto por 8 tubos afinados para as notas da escala diatônica Dó maior, variando de Dó a Dó (C4 a C5), Os tubos variam em comprimento de 28 cm a 61 cm, sendo cada tubo afinado especificamente para sua respectiva nota da escala. O comprimento dos tubos determina a frequência e a altura do som.</t>
+  </si>
+  <si>
+    <t>Kit de Tubos Graves - PVC Colorido, Escala Dó2 a Si2. Características Técnicas: Tipo de Instrumento: Kit de Tubos Graves composto por tubos afinados na escala musical Dó2 a Si2, com notas graves e médias, ideal para complementar a execução de peças musicais e fornecer suporte para práticas educacionais em grupos ou ensaios. O kit permite a execução de músicas em uma faixa de notas mais graves, proporcionando uma sonoridade rica e encorpada. Material: Tubos fabricados em PVC colorido, garantindo leveza, resistência e durabilidade, com boa projeção sonora. O material também é resistente a mudanças de temperatura e umidade, facilitando o transporte e a utilização em diversos ambientes. O PVC facilita a limpeza e manutenção dos tubos, sendo um material prático para uso contínuo. Afinação e Notas: O kit é composto por notas graves e médias, com a escala variando de Dó2 a Si2, o que proporciona um som profundo e encorpado para a execução de músicas em tons mais graves. Cada tubo é afinado individualmente, garantindo precisão tonal para cada nota na faixa especificada. Medidas dos Tubos: Os tubos variam em comprimento de 66 cm a 1,27 m, sendo que os tubos mais curtos produzem notas graves, enquanto os tubos mais longos produzem notas médias, com uma sonoridade mais profunda e balanceada. comprimento dos tubos é ajustado para garantir a frequência e a altura das notas graves e médias, permitindo a execução precisa da música. Cores: Tubos em cores vibrantes e distintas, facilitando a identificação visual das notas, especialmente em contextos educacionais, proporcionando uma abordagem intuitiva ao aprendizado musical. As cores devem ser padronizadas para cada nota, facilitando a leitura e identificação das notas graves. Acessórios: O kit pode incluir um suporte para os tubos, permitindo maior facilidade de uso e armazenamento, além de garantir a organização dos tubos durante o uso. Manual de instruções ou orientações básicas sobre como tocar as notas graves também pode ser fornecido, facilitando o ensino e a aprendizagem. Garantia e Suporte: Garantia mínima de 12 meses contra defeitos de fabricação, com suporte técnico e reposição de peças durante o período de garantia.</t>
   </si>
   <si>
     <t>Kit Notas Alteradas Graves - PVC Colorido, Notas Adicionais Graves: Os tubos variam em comprimento de 68 cm a 1,19 m</t>
   </si>
   <si>
-    <t>Kit de Notas Alteradas - PVC Colorido, Notas Adicionais (Dót, Rét, Fáti, etc.) Kit de Notas Alteradas composto por tubos afinados que representam notas adicionais à escala diatônica, como Dót, Rét, Fát!, entre outras, permitindo a execução de uma gama mais ampla de melodias e peças musicais. ideal para uso educacional e apresentações musicais, este Kkit complementa a escala diatônica com as notas alteradas (sustenidas), oferecendo maior flexibilidade musical. Material: Fabricado em PVC colorido, garantindo leveza, resistência e durabilidade. O material oferece boa projeção sonora</t>
+    <t>Kit de Notas Alteradas - PVC Colorido, Notas Adicionais (Dó#, Ré#, Fá#, etc.) Kit de Notas Alteradas composto por tubos afinados que representam notas adicionais à escala diatônica, como Dó#, Ré#, Fá#, entre outras, permitindo a execução de uma gama mais ampla de melodias e peças musicais. Ideal para uso educacional e apresentações musicais, este kit complementa a escala diatônica com as notas alteradas (sustenidas), oferecendo maior flexibilidade musical. Material: Fabricado em PVC colorido, garantindo leveza, resistência e durabilidade. O material oferece boa projeção sonora</t>
   </si>
   <si>
     <t>MESA DE ÁUDIO: Características Técnicas: Entradas: A mesa de áudio deve possuir no mínimo 8 entradas (mic e linha) para conectar diferentes instrumentos, microfones e fontes de áudio. As entradas devem ser balanceadas (XLR e P10) e não balanceadas. Equalização: A mesa de áudio deve possuir um equalizador de 3 bandas (agudos, médios e graves) por canal, permitindo ajustes precisos de frequência para otimizar a qualidade sonora de cada fonte de áudio. O equalizador deve ser independente para cada canal, oferecendo controle completo sobre as frequências do áudio Efeitos: A mesa de áudio deve possuir processador de efeitos integrado, com capacidade de processamento em 24Bit/40kHz, oferecendo efeitos de alta qualidade, como reverb, delay, chorus, entre outros. O sistema de efeitos deve permitir o controle individual de cada efeito por canal, para proporcionar personalização completa das mixagens. Saídas: A mesa de áudio deve possuir saídas balanceadas (XLR ou P10) e não balanceadas (RCA ou P10) para conexão com amplificadores. Conectividade: Entradas e saídas USB ou MIDI (se aplicável), permitindo integração com sistemas de gravação digital ou software de edição de áudio. Controle remoto (opcional)</t>
   </si>
   <si>
-    <t>MICROFONE SEM FIO: Características Técnicas: Microfone: Tipo: Microfone sem fio com transmissão UHF. Frequência de operação: De 614 MHz a 806 MHz, cobrindo uma ampla faixa de frequências para garantir sinal estável e com baixa interferência. Transmissor: O microfone deverá possuir transmissor compacto com sistema de microfone —condensador ou dinâmico, proporcionando alta sensibilidade e qualidade sonora. Alimentação do microfone: Bateria recarregável ou pilhas. Receptor: Modelo do receptor: R-302 ou equivalente de alta qualidade. Sinal/Ruído: A relação de sinal/ruído &gt; 95dB, garantindo alta qualidade de áudio e som claro, com mínima interferência. O receptor deve funcionar com alimentação DC 12V, podendo ser alimentado por fonte externa, com a possibilidade de uso po bateria recarregável ou adaptador AC-DC Sensibilidade de recepção: Alta sensibilidade de recepção para captar sinais com clareza, mesmo em ambientes com interferências eletromagnéticas. Entradas do receptor: Deve ter saídas balanceadas (XLR) e não balanceadas (P10 ou RCA) Alcance de transmissão: O microfone deve ter alcance mínimo de 50 metros. Funcionalidades Adicionais: Controle de volume e ajuste de ganho no receptor, permitindo ajustes finos para diferentes ambientes de gravação ou apresentação. Indicadores LED no receptor e no microfone para mostrar o estado de bateria, sincronização e qualidade do sinal.</t>
+    <t>MICROFONE SEM FIO: Características Técnicas: Microfone: Tipo: Microfone sem fio com transmissão UHF. Frequência de operação: De 614 MHz a 806 MHz, cobrindo uma ampla faixa de frequências para garantir sinal estável e com baixa interferência. Transmissor: O microfone deverá possuir transmissor compacto com sistema de microfone condensador ou dinâmico, proporcionando alta sensibilidade e qualidade sonora. Alimentação do microfone: Bateria recarregável ou pilhas. Receptor: Modelo do receptor: R-302 ou equivalente de alta qualidade. Sinal/Ruído: A relação de sinal/ruído ≥ 95dB, garantindo alta qualidade de áudio e som claro, com mínima interferência. O receptor deve funcionar com alimentação DC 12V, podendo ser alimentado por fonte externa, com a possibilidade de uso por bateria recarregável ou adaptador AC-DC Sensibilidade de recepção: Alta sensibilidade de recepção para captar sinais com clareza, mesmo em ambientes com interferências eletromagnéticas. Entradas do receptor: Deve ter saídas balanceadas (XLR) e não balanceadas (P10 ou RCA) Alcance de transmissão: O microfone deve ter alcance mínimo de 50 metros. Funcionalidades Adicionais: Controle de volume e ajuste de ganho no receptor, permitindo ajustes finos para diferentes ambientes de gravação ou apresentação. Indicadores LED no receptor e no microfone para mostrar o estado de bateria, sincronização e qualidade do sinal.</t>
   </si>
   <si>
     <t>PANDEIRO: Características Técnicas: Corpo: Corpo de madeira de alta qualidade, proporcionando boa resonância e durabilidade, ideal para uso em ambientes educacionais e apresentações musicais. O material deve garantir um som claro e de boa projeção, com resistência ao desgaste e impacto. Pele: Pele de couro natural, tensionada de forma adequada para garantir a produção de um som autêntico e vibrante. A pele deve ser resistente e durável, proporcionando uma sonoridade rica e de boa qualidade durante a execução. Platinelas: Platinelas em inox, material que assegura maior resistência à corrosão e durabilidade, além de garantir um som mais brilhante e claro. As platinelas devem ser firmemente fixadas ao corpo do pandeiro, proporcionando uma sonoridade bem definida e sem distorções. Som e Performance: O pandeiro deve produzir um som nítido, claro e com boa projeção, ideal para grupos de percussão e apresentações ao vivo. A combinação do corpo de madeira e pele de couro deve resultar em um timbre equilibrado, com boa resposta sonora.</t>
   </si>
   <si>
-    <t>PANDEIROLA: Características Técnicas: Estrutura: Meia lua em material policarbonato, proporcionando leveza, resistência e durabilidade ao instrumento, além de ser resistente ao impacto e a condições climáticas adversas. O material deve ser translúcido ou transparente, com design que assegure um uso confortável e prático, sem comprometer a resistência estrutural. Platinelas: Platinelas em inox, garantindo alta resistência à corrosão, durabilidade prolongada e um som brilhante e claro. As platinelas devem ser firmemente fixadas à estrutura da pandeirola, proporcionando um som nítido e definido, com ótima projeção sonora. Som e Performance: A pandeirola deve produzir um som claro, vibrante e com boa projeção, ideal para apresentações, grupos de percussão e uso educacional. A combinação do material de policarbonato e das platinelas de inox deve proporcionar um timbre característico, com um equilíbrio entre o agudo e o brilho das PLATINELA. Tamanho e Dimensões: O tamanho da pandeirola deve ser padrão, com um diâmetro que permita fácil manuseio e toque eficiente em diversas situações, seja em grupos ou ensaios, A pandeirola deve ser projetada para um ajuste perfeito nas mãos do músico, com uma grande facilidade de utilização.</t>
-  </si>
-  <si>
-    <t>PEDESTAL PARA MICROFONE COM CACHIMBO: Características Técnicas: Estrutura: Estrutura de aço ou metal resistente, garantindo robustez, estabilidade e durabilidade ao pedestal. O pedestal deve ser ajustável, com altura variável, permitindo sua adaptação a diferentes necessidades de uso, de acordo com o ambiente e posição do microfone. Base: Base circular ou tripé, com peso adequado para garantir a estabilidade durante o uso. A base deve ser antiderrapante, evitando deslocamentos indesejados durante o uso e garantindo maior segurança no local de uso; Cachimbo: Cachimbo de metal ou material resistente, com sistema de fixação ajustável, que permite ângulo de inclinação e rotação do microfone. O cachimbo deve ser robusto, mas flexível o suficiente para permitir ajustes de posição, sem comprometer a estabilidade do microfone. Ajuste de Altura: Sistema de ajuste de altura telescópico com fixação por parafuso ou trava de rosca, proporcionando facilidade e segurança ao ajustar a altura do pedestal. A altura do pedestal deve ser ajustável entre 1,00 m e 1,80 m, para atender diferentes necessidades de uso em gravações, apresentações e eventos.</t>
-  </si>
-  <si>
-    <t>PIANO DIGITAL: Características Técnicas: Teclas: 88 teclas sensíveis ao toque, com ação pesada e resposta dinâmica similar a um piano acústico, proporcionando uma experiência de execução autêntica. As teclas devem ter acabamento em material durável, garantindo resistência e conforto ao toque durante longos períodos de uso. Funções e Sons: Múltiplos timbres de alta qualidade (piano acústico, elétrico, órgãos, strings, entre outros), com reprodução fiel dos sons e boa variedade de opções musicais. Polifonia de no mínimo 64 notas ou superior, permitindo a execução de peças complexas sem cortes de som. Efeitos integrados como reverb, chorus e modulação, para enriquecer as performances musicais. Conectividade: Saídas de áudio (P10 ou RCA) para conexão com amplificadores ou sistemas de som externos. Entradas e saídas MIDI para integração com outros equipamentos musicais ou softwares de gravação e produção musical. Porta USB para conexão com computadores ou dispositivos móveis para gravação, edição ou uso de programas musicais. Pedais: Inclui pedal triplo, com funções de sustain, soft e sostenuto, Fonte de energia compatível com 110V, com proteção contra sobrecarga e voltagem estável</t>
-  </si>
-  <si>
-    <t>TECLADO: Características Técnicas: Teclas: Teclado com no mínimo 61 teclas, com sensibilidade ao toque (ou simulação de sensibilidade), permitindo controle dinâmico durante a execução. Teclas de tamanho padrão e acabamento durável, garantindo conforto e resposta adequada ao toque durante o uso prolongado, Funções e Sons: Múltiplos timbres de alta qualidade, incluindo pianos, órgãos, strings, percussão, e outros sons acústicos e eletrônicos. A capacidade de polifonia deve ser de no mínimo 32 notas ou superior, permitindo execução sem interrupções ou cortes de notas. Efeitos integrados como reverb, chorus e outros efeitos que enriqueçam a sonoridade do instrumento. Conectividade: Saídas de áudio, como P10 ou RCA, para conexão com sistemas de som ou amplificadores externos. Conexões USB ou MIDI, permitindo integração com computadores, softwares de gravação e outros equipamentos musicais. Saída para fones de ouvido para uso silencioso ou em ambientes de prática. Alimentação e Portabilidade: Alimentação através de fonte de energia inclusa (110V) e, se aplicável, bateria interna ou opção de alimentação vi pilhas para uso portátil. Tela e Controles: Tela LCD ou LED para exibição de informações</t>
-  </si>
-  <si>
-    <t>VIOLÃO ELETROACÚSTICO PROFISSIONAL: Cordas de náilon, proporcionando um som suave e agradável, adequado tanto para iniciantes quanto para músicos profissionais. Tamanho: Tamanho 4/4, adequado para adultos, com comprimento total de 95,5 a 101,5 cm (38 a 40 polegadas). Tamanho ideal para músicos profissionais, com escala que oferece conforto e qualidade sonora. Material: Madeira de alta qualidade para o corpo, braço e escala, proporcionando durabilidade, ressonância e uma sonoridade rica e equilibrada. Tampo em madeira sólida (exemplo: abeto ou cedro), para garantir excelente projeção sonora. Braço em mogno ou material similar, com acabamento suave para facilitar a tocabilidade. Captação e Eletrônica: Sistema de captação piezoelétrica ou micrófono interno de qualidade, com pré-amplificador embutido e controle de volume, graves e agudos., Saída para cabo P10 ou XLR, permitindo amplificação em palcos, estúdios ou outros ambientes.</t>
-  </si>
-  <si>
-    <t>XILOFONE BAIXO: Características Técnicas: Teclas: 13 teclas naturais, com notas adicionais de Sib (B) e Fá* (Ft), feitas de madeira Cumaru, que oferece excelente ressonância, durabilidade e um som encorpado. As teclas devem ser afinadas com precisão, proporcionando um som grave e profundo, ideal para a execução de notas mais baixas. Escala: Escala diatônica com 13 teclas, cobrindo a faixa de C2 a C4 (ou equivalente), com a inclusão das notas adicionais de Sib (B) e Fá*r (F%), o que amplia a capacidade do instrumento para executar notas mais graves e oferecer uma sonoridade mais balanceada. Esse modelo possui uma faixa tonal inferior em comparação com os xilofones soprano e contralto, permitindo um timbre mais grave e menos agudo, adequado para peças que exigem profundidade e base harmônica. Caixa de Ressonância: Caixa em Pinus, projetada para amplificar o som das teclas, proporcionando uma resposta sonora equilibrada com um timbre grave e uma boa projeção sonora em notas baixas. A construção da caixa deve ser robusta e bem acabada para garantir a durabilidade e a qualidade sonora ao longo do tempo. Som e Performance: O xilofone baixo deve produzir um som encorpado e profundo, com boa ressonância, adequado para complementar a sonoridade de outros instrumentos ou desempenhar partes de base em uma composição. A combinação das teclas de madeira Cumaru e da caixa de ressonância em Pinus deve resultar em um timbre mais grave, equilibrado e ideal para performances que exigem a sustentação de graves.</t>
+    <t>PANDEIROLA: Características Técnicas: Estrutura: Meia lua em material policarbonato, proporcionando leveza, resistência e durabilidade ao instrumento, além de ser resistente ao impacto e a condições climáticas adversas. O material deve ser translúcido ou transparente, com design que assegure um uso confortável e prático, sem comprometer a resistência estrutural. Platinelas: Platinelas em inox, garantindo alta resistência à corrosão, durabilidade prolongada e um som brilhante e claro. As platinelas devem ser firmemente fixadas à estrutura da pandeirola, proporcionando um som nítido e definido, com ótima projeção sonora. Som e Performance: A pandeirola deve produzir um som claro, vibrante e com boa projeção, ideal para apresentações, grupos de percussão e uso educacional. A combinação do material de policarbonato e das platinelas de inox deve proporcionar um timbre característico, com um equilíbrio entre o agudo e o brilho das PLATINELA. Tamanho e Dimensões: O tamanho da pandeirola deve ser padrão, com um diâmetro que permita fácil manuseio e toque eficiente em diversas situações, seja em grupos ou ensaios. A pandeirola deve ser projetada para um ajuste perfeito nas mãos do músico, com uma grande facilidade de utilização.</t>
+  </si>
+  <si>
+    <t>PEDESTAL PARA MICROFONE COM CACHIMBO: Características Técnicas: Estrutura: Estrutura de aço ou metal resistente, garantindo robustez, estabilidade e durabilidade ao pedestal. O pedestal deve ser ajustável, com altura variável, permitindo sua adaptação a diferentes necessidades de uso, de acordo com o ambiente e posição do microfone. Base: Base circular ou tripé, com peso adequado para garantir a estabilidade durante o uso. A base deve ser antiderrapante, evitando deslocamentos indesejados durante o uso e garantindo maior segurança no local de uso. Cachimbo: Cachimbo de metal ou material resistente, com sistema de fixação ajustável, que permite ângulo de inclinação e rotação do microfone. O cachimbo deve ser robusto, mas flexível o suficiente para permitir ajustes de posição, sem comprometer a estabilidade do microfone. Ajuste de Altura: Sistema de ajuste de altura telescópico com fixação por parafuso ou trava de rosca, proporcionando facilidade e segurança ao ajustar a altura do pedestal. A altura do pedestal deve ser ajustável entre 1,00 m e 1,80 m, para atender diferentes necessidades de uso em gravações, apresentações e eventos.</t>
+  </si>
+  <si>
+    <t>PIANO DIGITAL: Características Técnicas: Teclas: 88 teclas sensíveis ao toque, com ação pesada e resposta dinâmica similar a um piano acústico, proporcionando uma experiência de execução autêntica. As teclas devem ter acabamento em material durável, garantindo resistência e conforto ao toque durante longos períodos de uso. Funções e Sons: Múltiplos timbres de alta qualidade (piano acústico, elétrico, órgãos, strings, entre outros), com reprodução fiel dos sons e boa variedade de opções musicais. Polifonia de no mínimo 64 notas ou superior, permitindo a execução de peças complexas sem cortes de som. Efeitos integrados como reverb, chorus e modulação, para enriquecer as performances musicais. Conectividade: Saídas de áudio (P10 ou RCA) para conexão com amplificadores ou sistemas de som externos. Entradas e saídas MIDI para integração com outros equipamentos musicais ou softwares de gravação e produção musical. Porta USB para conexão com computadores ou dispositivos móveis para gravação, edição ou uso de programas musicais. Pedais: Inclui pedal triplo, com funções de sustain, soft e sostenuto. Fonte de energia compatível com 110V, com proteção contra sobrecarga e voltagem estável</t>
+  </si>
+  <si>
+    <t>TECLADO: Características Técnicas: Teclas: Teclado com no mínimo 61 teclas, com sensibilidade ao toque (ou simulação de sensibilidade), permitindo controle dinâmico durante a execução. Teclas de tamanho padrão e acabamento durável, garantindo conforto e resposta adequada ao toque durante o uso prolongado. Funções e Sons: Múltiplos timbres de alta qualidade, incluindo pianos, órgãos, strings, percussão, e outros sons acústicos e eletrônicos. A capacidade de polifonia deve ser de no mínimo 32 notas ou superior, permitindo execução sem interrupções ou cortes de notas. Efeitos integrados como reverb, chorus e outros efeitos que enriqueçam a sonoridade do instrumento. Conectividade: Saídas de áudio, como P10 ou RCA, para conexão com sistemas de som ou amplificadores externos. Conexões USB ou MIDI, permitindo integração com computadores, softwares de gravação e outros equipamentos musicais. Saída para fones de ouvido para uso silencioso ou em ambientes de prática. Alimentação e Portabilidade: Alimentação através de fonte de energia inclusa (110V) e, se aplicável, bateria interna ou opção de alimentação via pilhas para uso portátil. Tela e Controles: Tela LCD ou LED para exibição de informações</t>
+  </si>
+  <si>
+    <t>VIOLÃO ELETROACÚSTICO PROFISSIONAL: Cordas de náilon, proporcionando um som suave e agradável, adequado tanto para iniciantes quanto para músicos profissionais. Tamanho: Tamanho 4/4, adequado para adultos, com comprimento total de 95,5 a 101,5 cm (38 a 40 polegadas). Tamanho ideal para músicos profissionais, com escala que oferece conforto e qualidade sonora. Material: Madeira de alta qualidade para o corpo, braço e escala, proporcionando durabilidade, ressonância e uma sonoridade rica e equilibrada. Tampo em madeira sólida (exemplo: abeto ou cedro), para garantir excelente projeção sonora. Braço em mogno ou material similar, com acabamento suave para facilitar a tocabilidade. Captação e Eletrônica: Sistema de captação piezoelétrica ou micrófono interno de qualidade, com préamplificador embutido e controle de volume, graves e agudos. Saída para cabo P10 ou XLR, permitindo amplificação em palcos, estúdios ou outros ambientes.</t>
+  </si>
+  <si>
+    <t>XILOFONE BAIXO: Características Técnicas: Teclas: 13 teclas naturais, com notas adicionais de Sib (B) e Fá# (F#), feitas de madeira Cumaru, que oferece excelente ressonância, durabilidade e um som encorpado. As teclas devem ser afinadas com precisão, proporcionando um som grave e profundo, ideal para a execução de notas mais baixas. Escala: Escala diatônica com 13 teclas, cobrindo a faixa de C2 a C4 (ou equivalente), com a inclusão das notas adicionais de Sib (B) e Fá# (F#), o que amplia a capacidade do instrumento para executar notas mais graves e oferecer uma sonoridade mais balanceada. Esse modelo possui uma faixa tonal inferior em comparação com os xilofones soprano e contralto, permitindo um timbre mais grave e menos agudo, adequado para peças que exigem profundidade e base harmônica. Caixa de Ressonância: Caixa em Pinus, projetada para amplificar o som das teclas, proporcionando uma resposta sonora equilibrada com um timbre grave e uma boa projeção sonora em notas baixas. A construção da caixa deve ser robusta e bem acabada para garantir a durabilidade e a qualidade sonora ao longo do tempo. Som e Performance: O xilofone baixo deve produzir um som encorpado e profundo, com boa ressonância, adequado para complementar a sonoridade de outros instrumentos ou desempenhar partes de base em uma composição. A combinação das teclas de madeira Cumaru e da caixa de ressonância em Pinus deve resultar em um timbre mais grave, equilibrado e ideal para performances que exigem a sustentação de graves.</t>
   </si>
   <si>
     <t>XILOFONE CONTRALTO: Características Técnicas: Teclas: 13 teclas naturais e notas adicionais, feitas em madeira Cumaru, uma madeira de alta qualidade, que oferece excelente ressonância e durabilidade. As teclas devem ser afinadas com precisão, proporcionando um som encorpado e grave, com notas mais baixas e graves. Escala: Escala diatônica com 13 notas, cobrindo a faixa de C3 a C5, ou equivalente, com notas graves e um timbre mais equilibrado e suave, ideal para performances em conjunto. Caixa de Ressonância: Caixa em Pinus, projetada para amplificar o som das teclas, proporcionando uma projeção sonora equilibrada, ideal para complementar outros instrumentos e garantir um timbre cheio.</t>

--- a/DOWNLOADS/EDITAIS/U_154044_E_900302025_02-10-2025_11h00m/U_154044_E_900302025_02-10-2025_11h00m_master.xlsx
+++ b/DOWNLOADS/EDITAIS/U_154044_E_900302025_02-10-2025_11h00m/U_154044_E_900302025_02-10-2025_11h00m_master.xlsx
@@ -169,13 +169,13 @@
     <t>Torno universal Torno Universal Material Estrutura: Alumínio Fundido, Tipo: Eletronico, Potência Total Instalada: 1/2CV, Tipo Motor: Elétrico, 110/220v, Características Adicionais: Chave Seletora De Rotação C/ Duplo Sentido</t>
   </si>
   <si>
-    <t>BATERIA ELETRÔNICA: Características Técnicas: Módulo Sonoro: Módulo com 184 timbres integrados, incluindo sons realistas de bateria acústica, percussão eletrônica, efeitos sonoros e instrumentos adicionais, permitindo uma ampla variedade sonora para estilos musicais diversos. O módulo também deve possuir opções de edição de timbres, como ajuste de pitch, reverb, e outros parâmetros para personalização do som. Pads: Pads de silicone de alta qualidade, projetados para simular a resposta de peles de tambor acústicas. Esses pads proporcionam sensibilidade de toque ajustável, feedback tátil preciso e maior durabilidade, além de ajudar na redução de ruído durante o uso. Os pads devem ser silenciosos para não interferir no ambiente de ensaio ou gravação. Pads para caixa, toms e pratos, com tamanhos e formatos ideais para simular a disposição de uma bateria tradicional. Rack: Rack dobrável e ajustável, de construção robusta e leve, ideal para fácil transporte e armazenamento. O rack deve ser resistente à pressão e ao impacto, com ajustes de altura e ângulo para personalização do conforto do músico. A estrutura deve ser feita de material metálico de alta resistência, garantindo estabilidade durante as performances e ensaios. Pedais: Pedais de alta qualidade para o controle do bumbo, com resposta precisa e ajuste de tensão para atender a diferentes preferências de tocabilidade. O sistema de pedal deve ser projetado para proporcionar uma sensação natural e silenciosa de toque, ideal para gravações e ensaios sem interferência de ruídos. Conexões e Expansão: Conexões USB e MIDI para integração com computadores, softwares de gravação, DAWs (Digital Audio Workstations) e outros dispositivos eletrônicos. Essas conexões devem permitir controle total sobre os timbres e a edição em tempo real via software. Saídas de áudio padrão (P10 ou XLR) para amplificação e gravação, permitindo uma fácil conexão a sistemas de som ou equipamentos de gravação. Possibilidade de expansão de pads e triggers para personalização de set-up conforme a necessidade do usuário. Suporte para Bumbo Duplo Silencioso: Suporte de bumbo duplo silencioso, projetado para minimizar os ruídos de impacto e garantir um funcionamento silencioso e eficiente. Ideal para ensaios em ambientes fechados e gravações, esse suporte deve ser estável e ajustável, com sistema de fixação seguro para os pedais de bumbo.</t>
-  </si>
-  <si>
-    <t>CAVALETE DE PINTURA COMPACTO EM MADEIRA MOGNO COM REGULAGEM DE ALTURA: Altura ajustável: no mínimo 70 cm (posição retraída) e até 150 cm (posição estendida), permitindo acomodar diferentes tamanhos de telas. Base: largura mínima de 40 cm e profundidade de 40 cm, oferecendo estabilidade mesmo em superfícies irregulares.</t>
-  </si>
-  <si>
-    <t>CAVALETE DE PINTURA DE MESA ARTICULADO PARA PINTURA SENTADO: Altura ajustável: no mínimo 30 cm (posição retraída) e até 50 cm (posição estendida), permitindo acomodar diferentes tamanhos de telas ou suportes de pintura. Base para mesa: largura mínima de 25 cm e comprimento mínimo de 30 cm, garantindo estabilidade.</t>
+    <t>BATERIA ELETRÔNICA: Características Técnicas: Módulo Sonoro: Módulo com 184 timbres integrados, incluindo sons realistas de bateria acústica, percussão eletrônica, efeitos sonoros e instrumentos adicionais, permitindo uma ampla variedade sonora para estilos musicais diversos. O módulo também deve possuir opções de edição de timbres, como ajuste de pitch, reverb, e outros parâmetros para personalização do som. Pads: Pads de silicone de alta qualidade, projetados para simular a resposta de peles de tambor acústicas. Esses pads proporcionam sensibilidade de toque ajustável, feedback tátil preciso e maior durabilidade, além de ajudar na redução de ruído durante o uso. Os pads devem ser silenciosos para não interferir no ambiente de ensaio ou gravação. Pads para caixa, toms e pratos, com tamanhos e formatos ideais para simular a disposição de uma bateria tradicional. Rack: Rack dobrável e ajustável, de construção robusta e leve, ideal para fácil transporte e armazenamento. O rack deve ser resistente à pressão e ao impacto, com ajustes de altura e ângulo para personalização do conforto do músico. A estrutura deve ser feita de material metálico de alta resistência, garantindo estabilidade durante as performances e ensaios. Pedais: Pedais de alta qualidade para o controle do bumbo, com resposta precisa e ajuste de tensão para atender a diferentes preferências de tocabilidade. O sistema de pedal deve ser projetado para proporcionar uma sensação natural e silenciosa de toque, ideal para gravações e ensaios sem interferência de ruídos. Conexões e Expansão: Conexões USB e MIDI para integração com computadores, softwares de gravação, DAWs (Digital Audio Workstations) e outros dispositivos eletrônicos. Essas conexões devem permitir controle total sobre os timbres e a edição em tempo real via software. Saídas de áudio padrão (P10 ou XLR) para amplificação e gravação, permitindo uma fácil conexão a sistemas de som ou equipamentos de gravação. Possibilidade de expansão de pads e triggers para personalização de set-up conforme a necessidade do usuário. Suporte para Bumbo Duplo Silencioso: Suporte de bumbo duplo silencioso, projetado para minimizar os ruídos de impacto e garantir um funcionamento silencioso e eficiente. Ideal para ensaios em ambientes fechados e gravações, esse suporte deve ser estável e ajustável, com sistema de fixação seguro para os pedais de bumbo</t>
+  </si>
+  <si>
+    <t>CAVALETE DE PINTURA COMPACTO EM MADEIRA MOGNO COM REGULAGEM DE ALTURA: Altura ajustável: no mínimo 70 cm (posição retraída) e até 150 cm (posição estendida), permitindo acomodar diferentes tamanhos de telas. Base: largura mínima de 40 cm e profundidade de 40 cm, oferecendo estabilidade mesmo em superfícies irregulares</t>
+  </si>
+  <si>
+    <t>CAVALETE DE PINTURA DE MESA ARTICULADO PARA PINTURA SENTADO: Altura ajustável: no mínimo 30 cm (posição retraída) e até 50 cm (posição estendida), permitindo acomodar diferentes tamanhos de telas ou suportes de pintura. Base para mesa: largura mínima de 25 cm e comprimento mínimo de 30 cm, garantindo estabilidade</t>
   </si>
   <si>
     <t>CONTRABAIXO ELÉTRICO - Características Técnicas: Número de Cordas: 4 cordas, adequada para uma ampla variedade de estilos musicais e níveis de performance. Captadores: Captadores tipo Soap Bar, conhecidos por seu som equilibrado e clareza tonal, com excelente resposta de graves e médios, perfeitos para uma grande variedade de gêneros musicais. Corpo: Corpo em Poplar, madeira de boa densidade e ressonância, proporcionando um timbre equilibrado com graves profundos e médios bem definidos. Braço: Braço em Maple, com tensor ajustável, permitindo a regulagem de curvatura para garantir a tocabilidade e a estabilidade da afinação. Perfil de braço confortável para facilitar a execução de notas e acordes, especialmente em longas sessões de ensaio ou performance. Escala: Escala em Maple, com trastes de alta qualidade para garantir durabilidade e facilidade no deslizar dos dedos durante a execução. Ponte: Ponte ajustável, oferecendo boa estabilidade de afinação e resistência ao uso constante. Controles: Controles de volume e tom de alta precisão, permitindo ajustes finos durante a performance ao vivo ou gravação</t>
@@ -184,22 +184,22 @@
     <t>Escaleta/Pianica - 37 Teclas, Afinação em Dó (C) Características Técnicas: Afinação em Dó (C), padrão internacional, proporcionando uma sonoridade precisa e adequada para práticas educacionais, ensaios em grupo e apresentações musicais. Teclas: 37 teclas de tamanho padrão, com teclas brancas e pretas bem definidas. Material e Construção: Fabricada com material resistente e de boa qualidade, garantindo durabilidade e resistência ao desgaste contínuo. O corpo da escaleta deve ser feito de material leve e resistente, como plástico de alta qualidade ou MDF. Reeds (Palhetas): O instrumento deve possuir (Reeds) palhetas internas de alta qualidade para uma sonoridade clara e precisa, respondendo bem ao sopro. Válvula de sopro e mangueira incluída</t>
   </si>
   <si>
-    <t>ESTANTE PARA PARTITURA (METAL, PRETA) Características Técnicas: Estrutura: Estrutura metálica de alta resistência, fabricada em aço ou alumínio, proporcionando durabilidade, estabilidade e resistência ao desgaste. Design e Cor: Cor preta com acabamento pintura eletrostática ou similar, garantindo acabamento durável e resistente à corrosão. O design da estante deve ser compacto e funcional, adequado para armazenar partituras de maneira prática, com suporte amplo para manter as partituras de forma segura e visível. Ajuste de Altura: Sistema de ajuste de altura telescópico, com facilidade de manuseio, permitindo adaptar a estante para diferentes alturas de usuários, de forma prática e rápida. A altura do suporte deve ser ajustável entre 0,80 m e 1,50 m, atendendo tanto músicos em pé quanto sentados. Base e Estabilidade: Base tripé ou similar, com pé antiderrapante, para garantir estabilidade e segurança, evitando tombos ou deslizamentos durante o uso. A base deve ser dobrável para facilidade de transporte e armazenamento, sem comprometer a firmeza da estante durante o uso.</t>
-  </si>
-  <si>
-    <t>Flauta Doce Contralto - Digitação Barroca, Resina ABS, Cor Branca Afinação: A flauta deve ser afinada conforme o padrão internacional, proporcionando uma tonalidade precisa e equilibrada, adequada para uso coletivo e individual. afinada em Fá (F), com um tom mais grave e equilibrado.</t>
+    <t>ESTANTE PARA PARTITURA (METAL, PRETA) Características Técnicas: Estrutura: Estrutura metálica de alta resistência, fabricada em aço ou alumínio, proporcionando durabilidade, estabilidade e resistência ao desgaste. Design e Cor: Cor preta com acabamento pintura eletrostática ou similar, garantindo acabamento durável e resistente à corrosão. O design da estante deve ser compacto e funcional, adequado para armazenar partituras de maneira prática, com suporte amplo para manter as partituras de forma segura e visível. Ajuste de Altura: Sistema de ajuste de altura telescópico, com facilidade de manuseio, permitindo adaptar a estante para diferentes alturas de usuários, de forma prática e rápida. A altura do suporte deve ser ajustável entre 0,80 m e 1,50 m, atendendo tanto músicos em pé quanto sentados. Base e Estabilidade: Base tripé ou similar, com pé antiderrapante, para garantir estabilidade e segurança, evitando tombos ou deslizamentos durante o uso. A base deve ser dobrável para facilidade de transporte e armazenamento, sem comprometer a firmeza da estante durante o uso</t>
+  </si>
+  <si>
+    <t>Flauta Doce Contralto - Digitação Barroca, Resina ABS, Cor Branca Afinação: A flauta deve ser afinada conforme o padrão internacional, proporcionando uma tonalidade precisa e equilibrada, adequada para uso coletivo e individual. afinada em Fá (F), com um tom mais grave e equilibrado</t>
   </si>
   <si>
     <t>Flauta Doce Soprano - Digitação Barroca, Resina ABS, Cor Branca. Características Técnicas: Flauta doce soprano com digitação barroca Material: Fabricada em resina ABS de alta qualidade Cor: Cor branca, afinada em Dó (C), com um alto-falante mais agudo</t>
   </si>
   <si>
-    <t>GUITARRA ELÉTRICA. Características Técnicas: Captadores: Captadores Single Coil (meio e braço), proporcionando um som limpo e brilhante, ideal para uma ampla gama de estilos musicais. Captador Humbucker (ponte), garantindo um som mais potente e com maior saída, ideal para estilos que exigem mais ganho, como rock e metal. Corpo: Corpo em Basswood, madeira leve e durável, com boa ressonância e equilíbrio tonal, proporcionando timbres ricos e detalhados. Escala: Escala com 24 trastes, oferecendo maior alcance para o guitarrista e flexibilidade para solos e variações melódicas. Braço: Braço em madeira de qualidade (como maple ou similar), com perfil confortável e acabamento suave, permitindo maior facilidade de toque e desempenho. Escala de 25,5 polegadas (padrão), ideal para uma afinação precisa e excelente tocabilidade.</t>
-  </si>
-  <si>
-    <t>Kit de 8 Tubos Afinados - PVC Colorido, Escala Diatônica Dó Maior: Tubos fabricados em PVC colorido, kit é composto por 8 tubos afinados para as notas da escala diatônica Dó maior, variando de Dó a Dó (C4 a C5), Os tubos variam em comprimento de 28 cm a 61 cm, sendo cada tubo afinado especificamente para sua respectiva nota da escala. O comprimento dos tubos determina a frequência e a altura do som.</t>
-  </si>
-  <si>
-    <t>Kit de Tubos Graves - PVC Colorido, Escala Dó2 a Si2. Características Técnicas: Tipo de Instrumento: Kit de Tubos Graves composto por tubos afinados na escala musical Dó2 a Si2, com notas graves e médias, ideal para complementar a execução de peças musicais e fornecer suporte para práticas educacionais em grupos ou ensaios. O kit permite a execução de músicas em uma faixa de notas mais graves, proporcionando uma sonoridade rica e encorpada. Material: Tubos fabricados em PVC colorido, garantindo leveza, resistência e durabilidade, com boa projeção sonora. O material também é resistente a mudanças de temperatura e umidade, facilitando o transporte e a utilização em diversos ambientes. O PVC facilita a limpeza e manutenção dos tubos, sendo um material prático para uso contínuo. Afinação e Notas: O kit é composto por notas graves e médias, com a escala variando de Dó2 a Si2, o que proporciona um som profundo e encorpado para a execução de músicas em tons mais graves. Cada tubo é afinado individualmente, garantindo precisão tonal para cada nota na faixa especificada. Medidas dos Tubos: Os tubos variam em comprimento de 66 cm a 1,27 m, sendo que os tubos mais curtos produzem notas graves, enquanto os tubos mais longos produzem notas médias, com uma sonoridade mais profunda e balanceada. comprimento dos tubos é ajustado para garantir a frequência e a altura das notas graves e médias, permitindo a execução precisa da música. Cores: Tubos em cores vibrantes e distintas, facilitando a identificação visual das notas, especialmente em contextos educacionais, proporcionando uma abordagem intuitiva ao aprendizado musical. As cores devem ser padronizadas para cada nota, facilitando a leitura e identificação das notas graves. Acessórios: O kit pode incluir um suporte para os tubos, permitindo maior facilidade de uso e armazenamento, além de garantir a organização dos tubos durante o uso. Manual de instruções ou orientações básicas sobre como tocar as notas graves também pode ser fornecido, facilitando o ensino e a aprendizagem. Garantia e Suporte: Garantia mínima de 12 meses contra defeitos de fabricação, com suporte técnico e reposição de peças durante o período de garantia.</t>
+    <t>GUITARRA ELÉTRICA. Características Técnicas: Captadores: Captadores Single Coil (meio e braço), proporcionando um som limpo e brilhante, ideal para uma ampla gama de estilos musicais. Captador Humbucker (ponte), garantindo um som mais potente e com maior saída, ideal para estilos que exigem mais ganho, como rock e metal. Corpo: Corpo em Basswood, madeira leve e durável, com boa ressonância e equilíbrio tonal, proporcionando timbres ricos e detalhados. Escala: Escala com 24 trastes, oferecendo maior alcance para o guitarrista e flexibilidade para solos e variações melódicas. Braço: Braço em madeira de qualidade (como maple ou similar), com perfil confortável e acabamento suave, permitindo maior facilidade de toque e desempenho. Escala de 25,5 polegadas (padrão), ideal para uma afinação precisa e excelente tocabilidade</t>
+  </si>
+  <si>
+    <t>Kit de 8 Tubos Afinados - PVC Colorido, Escala Diatônica Dó Maior: Tubos fabricados em PVC colorido, kit é composto por 8 tubos afinados para as notas da escala diatônica Dó maior, variando de Dó a Dó (C4 a C5), Os tubos variam em comprimento de 28 cm a 61 cm, sendo cada tubo afinado especificamente para sua respectiva nota da escala. O comprimento dos tubos determina a frequência e a altura do som</t>
+  </si>
+  <si>
+    <t>Kit de Tubos Graves - PVC Colorido, Escala Dó2 a Si2. Características Técnicas: Tipo de Instrumento: Kit de Tubos Graves composto por tubos afinados na escala musical Dó2 a Si2, com notas graves e médias, ideal para complementar a execução de peças musicais e fornecer suporte para práticas educacionais em grupos ou ensaios. O kit permite a execução de músicas em uma faixa de notas mais graves, proporcionando uma sonoridade rica e encorpada. Material: Tubos fabricados em PVC colorido, garantindo leveza, resistência e durabilidade, com boa projeção sonora. O material também é resistente a mudanças de temperatura e umidade, facilitando o transporte e a utilização em diversos ambientes. O PVC facilita a limpeza e manutenção dos tubos, sendo um material prático para uso contínuo. Afinação e Notas: O kit é composto por notas graves e médias, com a escala variando de Dó2 a Si2, o que proporciona um som profundo e encorpado para a execução de músicas em tons mais graves. Cada tubo é afinado individualmente, garantindo precisão tonal para cada nota na faixa especificada. Medidas dos Tubos: Os tubos variam em comprimento de 66 cm a 1,27 m, sendo que os tubos mais curtos produzem notas graves, enquanto os tubos mais longos produzem notas médias, com uma sonoridade mais profunda e balanceada. comprimento dos tubos é ajustado para garantir a frequência e a altura das notas graves e médias, permitindo a execução precisa da música. Cores: Tubos em cores vibrantes e distintas, facilitando a identificação visual das notas, especialmente em contextos educacionais, proporcionando uma abordagem intuitiva ao aprendizado musical. As cores devem ser padronizadas para cada nota, facilitando a leitura e identificação das notas graves. Acessórios: O kit pode incluir um suporte para os tubos, permitindo maior facilidade de uso e armazenamento, além de garantir a organização dos tubos durante o uso. Manual de instruções ou orientações básicas sobre como tocar as notas graves também pode ser fornecido, facilitando o ensino e a aprendizagem. Garantia e Suporte: Garantia mínima de 12 meses contra defeitos de fabricação, com suporte técnico e reposição de peças durante o período de garantia</t>
   </si>
   <si>
     <t>Kit Notas Alteradas Graves - PVC Colorido, Notas Adicionais Graves: Os tubos variam em comprimento de 68 cm a 1,19 m</t>
@@ -211,16 +211,16 @@
     <t>MESA DE ÁUDIO: Características Técnicas: Entradas: A mesa de áudio deve possuir no mínimo 8 entradas (mic e linha) para conectar diferentes instrumentos, microfones e fontes de áudio. As entradas devem ser balanceadas (XLR e P10) e não balanceadas. Equalização: A mesa de áudio deve possuir um equalizador de 3 bandas (agudos, médios e graves) por canal, permitindo ajustes precisos de frequência para otimizar a qualidade sonora de cada fonte de áudio. O equalizador deve ser independente para cada canal, oferecendo controle completo sobre as frequências do áudio Efeitos: A mesa de áudio deve possuir processador de efeitos integrado, com capacidade de processamento em 24Bit/40kHz, oferecendo efeitos de alta qualidade, como reverb, delay, chorus, entre outros. O sistema de efeitos deve permitir o controle individual de cada efeito por canal, para proporcionar personalização completa das mixagens. Saídas: A mesa de áudio deve possuir saídas balanceadas (XLR ou P10) e não balanceadas (RCA ou P10) para conexão com amplificadores. Conectividade: Entradas e saídas USB ou MIDI (se aplicável), permitindo integração com sistemas de gravação digital ou software de edição de áudio. Controle remoto (opcional)</t>
   </si>
   <si>
-    <t>MICROFONE SEM FIO: Características Técnicas: Microfone: Tipo: Microfone sem fio com transmissão UHF. Frequência de operação: De 614 MHz a 806 MHz, cobrindo uma ampla faixa de frequências para garantir sinal estável e com baixa interferência. Transmissor: O microfone deverá possuir transmissor compacto com sistema de microfone condensador ou dinâmico, proporcionando alta sensibilidade e qualidade sonora. Alimentação do microfone: Bateria recarregável ou pilhas. Receptor: Modelo do receptor: R-302 ou equivalente de alta qualidade. Sinal/Ruído: A relação de sinal/ruído ≥ 95dB, garantindo alta qualidade de áudio e som claro, com mínima interferência. O receptor deve funcionar com alimentação DC 12V, podendo ser alimentado por fonte externa, com a possibilidade de uso por bateria recarregável ou adaptador AC-DC Sensibilidade de recepção: Alta sensibilidade de recepção para captar sinais com clareza, mesmo em ambientes com interferências eletromagnéticas. Entradas do receptor: Deve ter saídas balanceadas (XLR) e não balanceadas (P10 ou RCA) Alcance de transmissão: O microfone deve ter alcance mínimo de 50 metros. Funcionalidades Adicionais: Controle de volume e ajuste de ganho no receptor, permitindo ajustes finos para diferentes ambientes de gravação ou apresentação. Indicadores LED no receptor e no microfone para mostrar o estado de bateria, sincronização e qualidade do sinal.</t>
-  </si>
-  <si>
-    <t>PANDEIRO: Características Técnicas: Corpo: Corpo de madeira de alta qualidade, proporcionando boa resonância e durabilidade, ideal para uso em ambientes educacionais e apresentações musicais. O material deve garantir um som claro e de boa projeção, com resistência ao desgaste e impacto. Pele: Pele de couro natural, tensionada de forma adequada para garantir a produção de um som autêntico e vibrante. A pele deve ser resistente e durável, proporcionando uma sonoridade rica e de boa qualidade durante a execução. Platinelas: Platinelas em inox, material que assegura maior resistência à corrosão e durabilidade, além de garantir um som mais brilhante e claro. As platinelas devem ser firmemente fixadas ao corpo do pandeiro, proporcionando uma sonoridade bem definida e sem distorções. Som e Performance: O pandeiro deve produzir um som nítido, claro e com boa projeção, ideal para grupos de percussão e apresentações ao vivo. A combinação do corpo de madeira e pele de couro deve resultar em um timbre equilibrado, com boa resposta sonora.</t>
-  </si>
-  <si>
-    <t>PANDEIROLA: Características Técnicas: Estrutura: Meia lua em material policarbonato, proporcionando leveza, resistência e durabilidade ao instrumento, além de ser resistente ao impacto e a condições climáticas adversas. O material deve ser translúcido ou transparente, com design que assegure um uso confortável e prático, sem comprometer a resistência estrutural. Platinelas: Platinelas em inox, garantindo alta resistência à corrosão, durabilidade prolongada e um som brilhante e claro. As platinelas devem ser firmemente fixadas à estrutura da pandeirola, proporcionando um som nítido e definido, com ótima projeção sonora. Som e Performance: A pandeirola deve produzir um som claro, vibrante e com boa projeção, ideal para apresentações, grupos de percussão e uso educacional. A combinação do material de policarbonato e das platinelas de inox deve proporcionar um timbre característico, com um equilíbrio entre o agudo e o brilho das PLATINELA. Tamanho e Dimensões: O tamanho da pandeirola deve ser padrão, com um diâmetro que permita fácil manuseio e toque eficiente em diversas situações, seja em grupos ou ensaios. A pandeirola deve ser projetada para um ajuste perfeito nas mãos do músico, com uma grande facilidade de utilização.</t>
-  </si>
-  <si>
-    <t>PEDESTAL PARA MICROFONE COM CACHIMBO: Características Técnicas: Estrutura: Estrutura de aço ou metal resistente, garantindo robustez, estabilidade e durabilidade ao pedestal. O pedestal deve ser ajustável, com altura variável, permitindo sua adaptação a diferentes necessidades de uso, de acordo com o ambiente e posição do microfone. Base: Base circular ou tripé, com peso adequado para garantir a estabilidade durante o uso. A base deve ser antiderrapante, evitando deslocamentos indesejados durante o uso e garantindo maior segurança no local de uso. Cachimbo: Cachimbo de metal ou material resistente, com sistema de fixação ajustável, que permite ângulo de inclinação e rotação do microfone. O cachimbo deve ser robusto, mas flexível o suficiente para permitir ajustes de posição, sem comprometer a estabilidade do microfone. Ajuste de Altura: Sistema de ajuste de altura telescópico com fixação por parafuso ou trava de rosca, proporcionando facilidade e segurança ao ajustar a altura do pedestal. A altura do pedestal deve ser ajustável entre 1,00 m e 1,80 m, para atender diferentes necessidades de uso em gravações, apresentações e eventos.</t>
+    <t>MICROFONE SEM FIO: Características Técnicas: Microfone: Tipo: Microfone sem fio com transmissão UHF. Frequência de operação: De 614 MHz a 806 MHz, cobrindo uma ampla faixa de frequências para garantir sinal estável e com baixa interferência. Transmissor: O microfone deverá possuir transmissor compacto com sistema de microfone condensador ou dinâmico, proporcionando alta sensibilidade e qualidade sonora. Alimentação do microfone: Bateria recarregável ou pilhas. Receptor: Modelo do receptor: R302 ou equivalente de alta qualidade. Sinal/Ruído: A relação de sinal/ruído ≥ 95dB, garantindo alta qualidade de áudio e som claro, com mínima interferência. O receptor deve funcionar com alimentação DC 12V, podendo ser alimentado por fonte externa, com a possibilidade de uso por bateria recarregável ou adaptador AC-DC Sensibilidade de recepção: Alta sensibilidade de recepção para captar sinais com clareza, mesmo em ambientes com interferências eletromagnéticas. Entradas do receptor: Deve ter saídas balanceadas (XLR) e não balanceadas (P10 ou RCA) Alcance de transmissão: O microfone deve ter alcance mínimo de 50 metros. Funcionalidades Adicionais: Controle de volume e ajuste de ganho no receptor, permitindo ajustes finos para diferentes ambientes de gravação ou apresentação. Indicadores LED no receptor e no microfone para mostrar o estado de bateria, sincronização e qualidade do sinal</t>
+  </si>
+  <si>
+    <t>PANDEIRO: Características Técnicas: Corpo: Corpo de madeira de alta qualidade, proporcionando boa resonância e durabilidade, ideal para uso em ambientes educacionais e apresentações musicais. O material deve garantir um som claro e de boa projeção, com resistência ao desgaste e impacto. Pele: Pele de couro natural, tensionada de forma adequada para garantir a produção de um som autêntico e vibrante. A pele deve ser resistente e durável, proporcionando uma sonoridade rica e de boa qualidade durante a execução. Platinelas: Platinelas em inox, material que assegura maior resistência à corrosão e durabilidade, além de garantir um som mais brilhante e claro. As platinelas devem ser firmemente fixadas ao corpo do pandeiro, proporcionando uma sonoridade bem definida e sem distorções. Som e Performance: O pandeiro deve produzir um som nítido, claro e com boa projeção, ideal para grupos de percussão e apresentações ao vivo. A combinação do corpo de madeira e pele de couro deve resultar em um timbre equilibrado, com boa resposta sonora</t>
+  </si>
+  <si>
+    <t>PANDEIROLA: Características Técnicas: Estrutura: Meia lua em material policarbonato, proporcionando leveza, resistência e durabilidade ao instrumento, além de ser resistente ao impacto e a condições climáticas adversas. O material deve ser translúcido ou transparente, com design que assegure um uso confortável e prático, sem comprometer a resistência estrutural. Platinelas: Platinelas em inox, garantindo alta resistência à corrosão, durabilidade prolongada e um som brilhante e claro. As platinelas devem ser firmemente fixadas à estrutura da pandeirola, proporcionando um som nítido e definido, com ótima projeção sonora. Som e Performance: A pandeirola deve produzir um som claro, vibrante e com boa projeção, ideal para apresentações, grupos de percussão e uso educacional. A combinação do material de policarbonato e das platinelas de inox deve proporcionar um timbre característico, com um equilíbrio entre o agudo e o brilho das PLATINELA. Tamanho e Dimensões: O tamanho da pandeirola deve ser padrão, com um diâmetro que permita fácil manuseio e toque eficiente em diversas situações, seja em grupos ou ensaios. A pandeirola deve ser projetada para um ajuste perfeito nas mãos do músico, com uma grande facilidade de utilização</t>
+  </si>
+  <si>
+    <t>PEDESTAL PARA MICROFONE COM CACHIMBO: Características Técnicas: Estrutura: Estrutura de aço ou metal resistente, garantindo robustez, estabilidade e durabilidade ao pedestal. O pedestal deve ser ajustável, com altura variável, permitindo sua adaptação a diferentes necessidades de uso, de acordo com o ambiente e posição do microfone. Base: Base circular ou tripé, com peso adequado para garantir a estabilidade durante o uso. A base deve ser antiderrapante, evitando deslocamentos indesejados durante o uso e garantindo maior segurança no local de uso. Cachimbo: Cachimbo de metal ou material resistente, com sistema de fixação ajustável, que permite ângulo de inclinação e rotação do microfone. O cachimbo deve ser robusto, mas flexível o suficiente para permitir ajustes de posição, sem comprometer a estabilidade do microfone. Ajuste de Altura: Sistema de ajuste de altura telescópico com fixação por parafuso ou trava de rosca, proporcionando facilidade e segurança ao ajustar a altura do pedestal. A altura do pedestal deve ser ajustável entre 1,00 m e 1,80 m, para atender diferentes necessidades de uso em gravações, apresentações e eventos</t>
   </si>
   <si>
     <t>PIANO DIGITAL: Características Técnicas: Teclas: 88 teclas sensíveis ao toque, com ação pesada e resposta dinâmica similar a um piano acústico, proporcionando uma experiência de execução autêntica. As teclas devem ter acabamento em material durável, garantindo resistência e conforto ao toque durante longos períodos de uso. Funções e Sons: Múltiplos timbres de alta qualidade (piano acústico, elétrico, órgãos, strings, entre outros), com reprodução fiel dos sons e boa variedade de opções musicais. Polifonia de no mínimo 64 notas ou superior, permitindo a execução de peças complexas sem cortes de som. Efeitos integrados como reverb, chorus e modulação, para enriquecer as performances musicais. Conectividade: Saídas de áudio (P10 ou RCA) para conexão com amplificadores ou sistemas de som externos. Entradas e saídas MIDI para integração com outros equipamentos musicais ou softwares de gravação e produção musical. Porta USB para conexão com computadores ou dispositivos móveis para gravação, edição ou uso de programas musicais. Pedais: Inclui pedal triplo, com funções de sustain, soft e sostenuto. Fonte de energia compatível com 110V, com proteção contra sobrecarga e voltagem estável</t>
@@ -229,16 +229,16 @@
     <t>TECLADO: Características Técnicas: Teclas: Teclado com no mínimo 61 teclas, com sensibilidade ao toque (ou simulação de sensibilidade), permitindo controle dinâmico durante a execução. Teclas de tamanho padrão e acabamento durável, garantindo conforto e resposta adequada ao toque durante o uso prolongado. Funções e Sons: Múltiplos timbres de alta qualidade, incluindo pianos, órgãos, strings, percussão, e outros sons acústicos e eletrônicos. A capacidade de polifonia deve ser de no mínimo 32 notas ou superior, permitindo execução sem interrupções ou cortes de notas. Efeitos integrados como reverb, chorus e outros efeitos que enriqueçam a sonoridade do instrumento. Conectividade: Saídas de áudio, como P10 ou RCA, para conexão com sistemas de som ou amplificadores externos. Conexões USB ou MIDI, permitindo integração com computadores, softwares de gravação e outros equipamentos musicais. Saída para fones de ouvido para uso silencioso ou em ambientes de prática. Alimentação e Portabilidade: Alimentação através de fonte de energia inclusa (110V) e, se aplicável, bateria interna ou opção de alimentação via pilhas para uso portátil. Tela e Controles: Tela LCD ou LED para exibição de informações</t>
   </si>
   <si>
-    <t>VIOLÃO ELETROACÚSTICO PROFISSIONAL: Cordas de náilon, proporcionando um som suave e agradável, adequado tanto para iniciantes quanto para músicos profissionais. Tamanho: Tamanho 4 /4, adequado para adultos, com comprimento total de 95,5 a 101,5 cm (38 a 40 polegadas). Tamanho ideal para músicos profissionais, com escala que oferece conforto e qualidade sonora. Material: Madeira de alta qualidade para o corpo, braço e escala, proporcionando durabilidade, ressonância e uma sonoridade rica e equilibrada. Tampo em madeira sólida (exemplo: abeto ou cedro), para garantir excelente projeção sonora. Braço em mogno ou material similar, com acabamento suave para facilitar a tocabilidade. Captação e Eletrônica: Sistema de captação piezoelétrica ou micrófono interno de qualidade, com pré-amplificador embutido e controle de volume, graves e agudos. Saída para cabo P10 ou XLR, permitindo amplificação em palcos, estúdios ou outros ambientes.</t>
-  </si>
-  <si>
-    <t>XILOFONE BAIXO: Características Técnicas: Teclas: 13 teclas naturais, com notas adicionais de Sib (B) e Fá# (F#), feitas de madeira Cumaru, que oferece excelente ressonância, durabilidade e um som encorpado. As teclas devem ser afinadas com precisão, proporcionando um som grave e profundo, ideal para a execução de notas mais baixas. Escala: Escala diatônica com 13 teclas, cobrindo a faixa de C2 a C4 (ou equivalente), com a inclusão das notas adicionais de Sib (B) e Fá# (F#), o que amplia a capacidade do instrumento para executar notas mais graves e oferecer uma sonoridade mais balanceada. Esse modelo possui uma faixa tonal inferior em comparação com os xilofones soprano e contralto, permitindo um timbre mais grave e menos agudo, adequado para peças que exigem profundidade e base harmônica. Caixa de Ressonância: Caixa em Pinus, projetada para amplificar o som das teclas, proporcionando uma resposta sonora equilibrada com um timbre grave e uma boa projeção sonora em notas baixas. A construção da caixa deve ser robusta e bem acabada para garantir a durabilidade e a qualidade sonora ao longo do tempo. Som e Performance: O xilofone baixo deve produzir um som encorpado e profundo, com boa ressonância, adequado para complementar a sonoridade de outros instrumentos ou desempenhar partes de base em uma composição. A combinação das teclas de madeira Cumaru e da caixa de ressonância em Pinus deve resultar em um timbre mais grave, equilibrado e ideal para performances que exigem a sustentação de graves.</t>
-  </si>
-  <si>
-    <t>XILOFONE CONTRALTO: Características Técnicas: Teclas: 13 teclas naturais e notas adicionais, feitas em madeira Cumaru, uma madeira de alta qualidade, que oferece excelente ressonância e durabilidade. As teclas devem ser afinadas com precisão, proporcionando um som encorpado e grave, com notas mais baixas e graves. Escala: Escala diatônica com 13 notas, cobrindo a faixa de C3 a C5, ou equivalente, com notas graves e um timbre mais equilibrado e suave, ideal para performances em conjunto. Caixa de Ressonância: Caixa em Pinus, projetada para amplificar o som das teclas, proporcionando uma projeção sonora equilibrada, ideal para complementar outros instrumentos e garantir um timbre cheio.</t>
-  </si>
-  <si>
-    <t>XILOFONE SOPRANO: Características Técnicas: Teclas: 13 teclas naturais feitas em madeira Cumaru, uma madeira de alta densidade que proporciona excelente ressonância e durabilidade. As teclas devem ser afinadas com precisão para garantir um som limpo e bem definido, com notas agudas. Escala: Escala diatônica com 13 notas, cobrindo a faixa de C4 a C6, ou equivalente, adequada para melodias mais agudas e de maior intensidade. Caixa de Ressonância: Caixa em Pinus, projetada para amplificar o som das teclas, proporcionando resposta sonora equilibrada e projeção adequada para ambientes educacionais e apresentações. Som e Performance: O xilofone deve produzir um som brilhante e claro, com boa projeção em faixas mais altas, ideal para apresentações e uso em sala de aula. A afinidade natural das teclas proporciona uma sonoridade precisa e agradável.</t>
+    <t>VIOLÃO ELETROACÚSTICO PROFISSIONAL: Cordas de náilon, proporcionando um som suave e agradável, adequado tanto para iniciantes quanto para músicos profissionais. Tamanho: Tamanho 4 /4, adequado para adultos, com comprimento total de 95,5 a 101,5 cm (38 a 40 polegadas). Tamanho ideal para músicos profissionais, com escala que oferece conforto e qualidade sonora. Material: Madeira de alta qualidade para o corpo, braço e escala, proporcionando durabilidade, ressonância e uma sonoridade rica e equilibrada. Tampo em madeira sólida (exemplo: abeto ou cedro), para garantir excelente projeção sonora. Braço em mogno ou material similar, com acabamento suave para facilitar a tocabilidade. Captação e Eletrônica: Sistema de captação piezoelétrica ou micrófono interno de qualidade, com pré-amplificador embutido e controle de volume, graves e agudos. Saída para cabo P10 ou XLR, permitindo amplificação em palcos, estúdios ou outros ambientes</t>
+  </si>
+  <si>
+    <t>XILOFONE BAIXO: Características Técnicas: Teclas: 13 teclas naturais, com notas adicionais de Sib (B) e Fá# (F#), feitas de madeira Cumaru, que oferece excelente ressonância, durabilidade e um som encorpado. As teclas devem ser afinadas com precisão, proporcionando um som grave e profundo, ideal para a execução de notas mais baixas. Escala: Escala diatônica com 13 teclas, cobrindo a faixa de C2 a C4 (ou equivalente), com a inclusão das notas adicionais de Sib (B) e Fá# (F#), o que amplia a capacidade do instrumento para executar notas mais graves e oferecer uma sonoridade mais balanceada. Esse modelo possui uma faixa tonal inferior em comparação com os xilofones soprano e contralto, permitindo um timbre mais grave e menos agudo, adequado para peças que exigem profundidade e base harmônica. Caixa de Ressonância: Caixa em Pinus, projetada para amplificar o som das teclas, proporcionando uma resposta sonora equilibrada com um timbre grave e uma boa projeção sonora em notas baixas. A construção da caixa deve ser robusta e bem acabada para garantir a durabilidade e a qualidade sonora ao longo do tempo. Som e Performance: O xilofone baixo deve produzir um som encorpado e profundo, com boa ressonância, adequado para complementar a sonoridade de outros instrumentos ou desempenhar partes de base em uma composição. A combinação das teclas de madeira Cumaru e da caixa de ressonância em Pinus deve resultar em um timbre mais grave, equilibrado e ideal para performances que exigem a sustentação de graves</t>
+  </si>
+  <si>
+    <t>XILOFONE CONTRALTO: Características Técnicas: Teclas: 13 teclas naturais e notas adicionais, feitas em madeira Cumaru, uma madeira de alta qualidade, que oferece excelente ressonância e durabilidade. As teclas devem ser afinadas com precisão, proporcionando um som encorpado e grave, com notas mais baixas e graves. Escala: Escala diatônica com 13 notas, cobrindo a faixa de C3 a C5, ou equivalente, com notas graves e um timbre mais equilibrado e suave, ideal para performances em conjunto. Caixa de Ressonância: Caixa em Pinus, projetada para amplificar o som das teclas, proporcionando uma projeção sonora equilibrada, ideal para complementar outros instrumentos e garantir um timbre cheio</t>
+  </si>
+  <si>
+    <t>XILOFONE SOPRANO: Características Técnicas: Teclas: 13 teclas naturais feitas em madeira Cumaru, uma madeira de alta densidade que proporciona excelente ressonância e durabilidade. As teclas devem ser afinadas com precisão para garantir um som limpo e bem definido, com notas agudas. Escala: Escala diatônica com 13 notas, cobrindo a faixa de C4 a C6, ou equivalente, adequada para melodias mais agudas e de maior intensidade. Caixa de Ressonância: Caixa em Pinus, projetada para amplificar o som das teclas, proporcionando resposta sonora equilibrada e projeção adequada para ambientes educacionais e apresentações. Som e Performance: O xilofone deve produzir um som brilhante e claro, com boa projeção em faixas mais altas, ideal para apresentações e uso em sala de aula. A afinidade natural das teclas proporciona uma sonoridade precisa e agradável</t>
   </si>
   <si>
     <t>TORNO ELÉTRICO PARA CERÂMICA - EQUIPAMENTO ERGONÔMICO E COMPACTO PARA MODELAGEM CERÂMICA</t>
